--- a/data/trans_dic/P11_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2062067383170836</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2819969017200933</v>
+        <v>0.2819969017200934</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3515834178381201</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1922722952512899</v>
+        <v>0.1936534431299428</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1582223260632409</v>
+        <v>0.1555999727256267</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.159204750187061</v>
+        <v>0.1625546003637666</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.234238934892518</v>
+        <v>0.2309837424756063</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2973622058808358</v>
+        <v>0.2961884111433465</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3029442314503785</v>
+        <v>0.308710068750128</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3176553313115628</v>
+        <v>0.3189709154711045</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4413395064169053</v>
+        <v>0.4425280332148833</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2588036619183977</v>
+        <v>0.2570097957175594</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2460970565731772</v>
+        <v>0.2473275091699271</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2538667268714371</v>
+        <v>0.2538535010230625</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3537872478493698</v>
+        <v>0.3529323394864352</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2906730106973082</v>
+        <v>0.2969906236665646</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2555133911580696</v>
+        <v>0.2530905544007667</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2610787873380288</v>
+        <v>0.2603229866848458</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.334661601416593</v>
+        <v>0.3372609412344885</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4126585626198588</v>
+        <v>0.4199498056181711</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.430357725193102</v>
+        <v>0.4283207440196155</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4324581394091881</v>
+        <v>0.4371134675261946</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5394717686045568</v>
+        <v>0.5386349493193603</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3357550783433869</v>
+        <v>0.3390160784375448</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3272212009238958</v>
+        <v>0.3239431414141777</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3375251527702132</v>
+        <v>0.3329616080069808</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4226163662363202</v>
+        <v>0.4235819612406466</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1835622968568698</v>
+        <v>0.1851392323669106</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1099835768583345</v>
+        <v>0.1115822966217921</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1030297493222048</v>
+        <v>0.101985879891878</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1988204790324192</v>
+        <v>0.1980853132830104</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3784703515069233</v>
+        <v>0.375851921282016</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2518203619998896</v>
+        <v>0.2530375340939018</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1821501330901543</v>
+        <v>0.1804642646160891</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3064214138975647</v>
+        <v>0.3083682159461515</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2902621804708662</v>
+        <v>0.2895098495315683</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1916876718843918</v>
+        <v>0.1909751168741541</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1507106302624039</v>
+        <v>0.1501126978809859</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2657884510439476</v>
+        <v>0.2637558641266425</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.259774272261817</v>
+        <v>0.2616333487502703</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1792188132091099</v>
+        <v>0.1779252167608277</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1643172332673672</v>
+        <v>0.1619576442536433</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2830219707802532</v>
+        <v>0.2820703719637626</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4662266765261303</v>
+        <v>0.4654548229620012</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3327496351445274</v>
+        <v>0.3334809272593952</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2565971878768364</v>
+        <v>0.2585862966640111</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3785484027668993</v>
+        <v>0.3785684104347257</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3479527834919402</v>
+        <v>0.3489300840053434</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2461834038964075</v>
+        <v>0.2443769099973357</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2003865214682633</v>
+        <v>0.2009977979182763</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3171752636945131</v>
+        <v>0.3202406914763524</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1324511933087682</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3341325815074257</v>
+        <v>0.3341325815074256</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2686765985229073</v>
@@ -957,7 +957,7 @@
         <v>0.2265184623358709</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3691803265943969</v>
+        <v>0.369180326594397</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.200872279678554</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09405136741922078</v>
+        <v>0.09537362485460185</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1193724718609092</v>
+        <v>0.1192612664947849</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09660035876964744</v>
+        <v>0.09700850566326492</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2882023163181048</v>
+        <v>0.2841269836722191</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2232716001342318</v>
+        <v>0.2289494612618116</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2178539275420244</v>
+        <v>0.2150869803422423</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1786631535222704</v>
+        <v>0.1837552220311907</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.32890648214193</v>
+        <v>0.3277467984956541</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1705780934032614</v>
+        <v>0.1713487952685327</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1798708582996424</v>
+        <v>0.1809724024547208</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1509422177553519</v>
+        <v>0.1496194472565132</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3227530091451627</v>
+        <v>0.3204913930592259</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.172004149498703</v>
+        <v>0.1713515433103513</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2049710823067309</v>
+        <v>0.2087753073419481</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.17046925208277</v>
+        <v>0.1725813334597269</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3812216450515417</v>
+        <v>0.3834406838648991</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3193387778036818</v>
+        <v>0.3129917753401569</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3129181681562287</v>
+        <v>0.3115047958523999</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2808727310231812</v>
+        <v>0.2811831085727965</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4109553144669635</v>
+        <v>0.408511541496835</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2304499029802909</v>
+        <v>0.2317128398043403</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2462322527455912</v>
+        <v>0.246251197970359</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.210194341047084</v>
+        <v>0.2114399442289881</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3860589960358801</v>
+        <v>0.3882191046640102</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1746230642898327</v>
+        <v>0.171618584800266</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1303837272004756</v>
+        <v>0.1293639480135544</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1796752472189543</v>
+        <v>0.1847985625154868</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2446713612513335</v>
+        <v>0.2386648627548095</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3029284163407328</v>
+        <v>0.2982036939801073</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3036267636649806</v>
+        <v>0.2984419329561456</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3231029307812989</v>
+        <v>0.3231174216017816</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3893728317454635</v>
+        <v>0.3876641345825328</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2485325157061826</v>
+        <v>0.2507942790011901</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2272307813272017</v>
+        <v>0.2280037993495316</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2661987986610682</v>
+        <v>0.2643510911752048</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3322890545764242</v>
+        <v>0.3347880513198482</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.252383506774675</v>
+        <v>0.2538028980530158</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2093516106536337</v>
+        <v>0.2092208425120034</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2661385115894094</v>
+        <v>0.2649870878174468</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3567352999813236</v>
+        <v>0.3533280182718372</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3975669948699993</v>
+        <v>0.3986333637369697</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3976279155087069</v>
+        <v>0.3959124546304544</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4280148441733538</v>
+        <v>0.4238920788851223</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.481927925912691</v>
+        <v>0.4784564012083601</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3130920801287461</v>
+        <v>0.3137797955241389</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2924136835066556</v>
+        <v>0.2898750657214988</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3354144728607458</v>
+        <v>0.3373292126044594</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4020657555637698</v>
+        <v>0.4087472154039993</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2922778333570455</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3179254874841538</v>
+        <v>0.3179254874841536</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1912567804039711</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1065404361826855</v>
+        <v>0.1137296698444957</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1620956383324711</v>
+        <v>0.1604928561453744</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1662273258708028</v>
+        <v>0.1713039625254554</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1807616422508022</v>
+        <v>0.1812779675244432</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1716153777959433</v>
+        <v>0.1744179860571047</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3848136272380667</v>
+        <v>0.3990707845777724</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2294820023042788</v>
+        <v>0.2364633138372539</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2742783225147891</v>
+        <v>0.277209165377145</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1540717360865143</v>
+        <v>0.1592176276485002</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2974239835362606</v>
+        <v>0.2952514200128932</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2172319249388242</v>
+        <v>0.2142068224186527</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2424361889742481</v>
+        <v>0.2436500346253686</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2061511880853349</v>
+        <v>0.2048994609242768</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2776880864096439</v>
+        <v>0.2819375565935091</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.279448370304851</v>
+        <v>0.2900524254926349</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2730354388596465</v>
+        <v>0.2745539111389958</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2980838091391796</v>
+        <v>0.2983824846950809</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5297038787696028</v>
+        <v>0.5335249567338344</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.357725677839053</v>
+        <v>0.3560038327518332</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3619567619193865</v>
+        <v>0.3593704991437662</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2292624750896411</v>
+        <v>0.2329210482241734</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3887059750599628</v>
+        <v>0.3908705463735567</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3025329768365122</v>
+        <v>0.3015084693691206</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3049658314846363</v>
+        <v>0.3100195234378719</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3084818617848373</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.5474259712809012</v>
+        <v>0.547425971280901</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2441045701433173</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1482201409802739</v>
+        <v>0.1494478488698624</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1995294120766518</v>
+        <v>0.1989549360612956</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1700086517121275</v>
+        <v>0.1694999435191973</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3819794110160453</v>
+        <v>0.3807114041625587</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2415997009794224</v>
+        <v>0.2386341056751985</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2351391926375671</v>
+        <v>0.23462130176979</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2532321925285213</v>
+        <v>0.2547556611555472</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4925976209494288</v>
+        <v>0.4989708714097095</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2116789177196949</v>
+        <v>0.2095346930634071</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2297513449331177</v>
+        <v>0.2362131043155855</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2303825822570097</v>
+        <v>0.2269035626125946</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4498089187387841</v>
+        <v>0.4542084874022295</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2436729358585743</v>
+        <v>0.2384479494193733</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3001688124031753</v>
+        <v>0.307298608043609</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2730256315857362</v>
+        <v>0.2739664682053671</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4898522863829844</v>
+        <v>0.4888604035098132</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3497151277922653</v>
+        <v>0.3564342521917109</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3440412367924324</v>
+        <v>0.3423203909376497</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3736142684084063</v>
+        <v>0.3647468770264179</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5915907123284634</v>
+        <v>0.5982000417136337</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2847672179839475</v>
+        <v>0.2807136145207315</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3041134947245362</v>
+        <v>0.3077892334719259</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3051377948816856</v>
+        <v>0.3033724333287171</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5263052651813519</v>
+        <v>0.5270274517248074</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1149884212423986</v>
+        <v>0.1161962682158208</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1225323330856911</v>
+        <v>0.1217081491015774</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1964631519078937</v>
+        <v>0.1968092006246051</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2314579494721224</v>
+        <v>0.2311987173407888</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1741002844208049</v>
+        <v>0.175531060897668</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2305305355406634</v>
+        <v>0.2316548591249297</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2772838170760529</v>
+        <v>0.2811667832760346</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3202563264597936</v>
+        <v>0.3183798535345386</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1530776978654445</v>
+        <v>0.1531100523049544</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1897995290486117</v>
+        <v>0.1884691892279099</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2491819458258118</v>
+        <v>0.2474207428751328</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2893222613761038</v>
+        <v>0.2865892276180158</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1685285385641694</v>
+        <v>0.1716641854426714</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1815310143443061</v>
+        <v>0.1814666984948124</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.263470684125971</v>
+        <v>0.267356447019115</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.306981018351114</v>
+        <v>0.3098979543796266</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2377203919272077</v>
+        <v>0.2405828050622545</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3036050107027313</v>
+        <v>0.3045074485433931</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3474621307021554</v>
+        <v>0.348957608690102</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3835923821749508</v>
+        <v>0.381121847650441</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1955779141429444</v>
+        <v>0.1948758719982525</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2350030544320557</v>
+        <v>0.2341917713567442</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2985263150083042</v>
+        <v>0.2995785167971119</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3361862925494852</v>
+        <v>0.3368644258120472</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.1589350488957426</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.1807591952912931</v>
+        <v>0.1807591952912932</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.2601615364313293</v>
@@ -1637,7 +1637,7 @@
         <v>0.2587690354669502</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.2902274578230005</v>
+        <v>0.2902274578230006</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2232574692344693</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1573205236732077</v>
+        <v>0.1560696560324494</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2125265427336967</v>
+        <v>0.2080806764967988</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1339691067816578</v>
+        <v>0.1345460829443725</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1566031739992581</v>
+        <v>0.156490656610733</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.228012934176133</v>
+        <v>0.2289858076259828</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2820745475761197</v>
+        <v>0.2853755158002721</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2283082010843996</v>
+        <v>0.2278434278073771</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2638968692907566</v>
+        <v>0.2629509616138205</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.20241055862532</v>
+        <v>0.2025252352184645</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2567009368148589</v>
+        <v>0.2551996324350284</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1897672475283615</v>
+        <v>0.1874451633781723</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2168775542368459</v>
+        <v>0.2180266802044407</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.213304904270779</v>
+        <v>0.2130249671602194</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2754801741159936</v>
+        <v>0.2729388879126612</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1868153242262121</v>
+        <v>0.1857360335281376</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2089348304996858</v>
+        <v>0.2118575115825016</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2927983590831914</v>
+        <v>0.2961680634318948</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3502773660796472</v>
+        <v>0.3528126397725218</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2945294618064718</v>
+        <v>0.2916128455996689</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3168545362125803</v>
+        <v>0.3177750435750542</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2435683599973405</v>
+        <v>0.2453655944231802</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3054166219008426</v>
+        <v>0.3059589181857319</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2319623161794894</v>
+        <v>0.2300547332459489</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2567913372710072</v>
+        <v>0.2570576167214288</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.2881251362814253</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.3712598008806118</v>
+        <v>0.3712598008806117</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.2377480754111515</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1686066687995799</v>
+        <v>0.1677094434853398</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1744584313400576</v>
+        <v>0.174481370876464</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1720163303739993</v>
+        <v>0.1712501373155456</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2489176637320382</v>
+        <v>0.2491692203955087</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2763915148759407</v>
+        <v>0.2774934538337981</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2974834022449004</v>
+        <v>0.2976058103708598</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.27265021915454</v>
+        <v>0.2721171031673614</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3559603317005495</v>
+        <v>0.3582958653595232</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2268916521119225</v>
+        <v>0.2270837719820155</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2425802104768902</v>
+        <v>0.2420568086695676</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2271103144975584</v>
+        <v>0.2283115880945399</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.3081067402087963</v>
+        <v>0.3084040983296282</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1955425101857123</v>
+        <v>0.1948612947337807</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2013739416689959</v>
+        <v>0.203735477094097</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2001913144920861</v>
+        <v>0.1986435844570186</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2796016931752824</v>
+        <v>0.2801714503891268</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3070229447498261</v>
+        <v>0.3076926647884504</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3301404297280862</v>
+        <v>0.3280554706314672</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3052493027386323</v>
+        <v>0.3048176084556649</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.382669681052642</v>
+        <v>0.3861327028256145</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2479160208090878</v>
+        <v>0.2483616620316756</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2642823074072024</v>
+        <v>0.2634081510032076</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2482629598699192</v>
+        <v>0.2492274347496997</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.3289728541307135</v>
+        <v>0.3292569966909226</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>52492</v>
+        <v>52869</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>46147</v>
+        <v>45382</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>46089</v>
+        <v>47059</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>74686</v>
+        <v>73648</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>77563</v>
+        <v>77257</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>86735</v>
+        <v>88386</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>91120</v>
+        <v>91497</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>139490</v>
+        <v>139866</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>138162</v>
+        <v>137204</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>142236</v>
+        <v>142947</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>146316</v>
+        <v>146308</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>224622</v>
+        <v>224079</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>79357</v>
+        <v>81081</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>74523</v>
+        <v>73816</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>75581</v>
+        <v>75362</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>106705</v>
+        <v>107534</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>107637</v>
+        <v>109539</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>123214</v>
+        <v>122631</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>124051</v>
+        <v>125387</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>170506</v>
+        <v>170242</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>179242</v>
+        <v>180983</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>189123</v>
+        <v>187228</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>194532</v>
+        <v>191902</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>268322</v>
+        <v>268935</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>90510</v>
+        <v>91288</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>55496</v>
+        <v>56302</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>51780</v>
+        <v>51256</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>105503</v>
+        <v>105113</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>190730</v>
+        <v>189410</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>131895</v>
+        <v>132532</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>94690</v>
+        <v>93814</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>167457</v>
+        <v>168521</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>289398</v>
+        <v>288648</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>197121</v>
+        <v>196388</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>154090</v>
+        <v>153479</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>286292</v>
+        <v>284102</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>128088</v>
+        <v>129005</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>90430</v>
+        <v>89778</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>82582</v>
+        <v>81396</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>150185</v>
+        <v>149680</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>234954</v>
+        <v>234565</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>174283</v>
+        <v>174666</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>133391</v>
+        <v>134425</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>206874</v>
+        <v>206885</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>346917</v>
+        <v>347892</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>253161</v>
+        <v>251304</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>204880</v>
+        <v>205505</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>341642</v>
+        <v>344944</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>29988</v>
+        <v>30409</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>38682</v>
+        <v>38646</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>30515</v>
+        <v>30644</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>91070</v>
+        <v>89782</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>74888</v>
+        <v>76792</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>74293</v>
+        <v>73349</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>59174</v>
+        <v>60861</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>117216</v>
+        <v>116803</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>111602</v>
+        <v>112106</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>119626</v>
+        <v>120359</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>97674</v>
+        <v>96818</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>217011</v>
+        <v>215490</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>54843</v>
+        <v>54635</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>66420</v>
+        <v>67653</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>53850</v>
+        <v>54517</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>120463</v>
+        <v>121165</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>107110</v>
+        <v>104981</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>106711</v>
+        <v>106229</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>93027</v>
+        <v>93130</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>146457</v>
+        <v>145586</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>150774</v>
+        <v>151600</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>163761</v>
+        <v>163773</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>136016</v>
+        <v>136822</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>259576</v>
+        <v>261029</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>62632</v>
+        <v>61555</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>47957</v>
+        <v>47582</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>66111</v>
+        <v>67996</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>90912</v>
+        <v>88680</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>112525</v>
+        <v>110770</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>117503</v>
+        <v>115496</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>124151</v>
+        <v>124156</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>164113</v>
+        <v>163393</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>181460</v>
+        <v>183112</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>171516</v>
+        <v>172099</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>200233</v>
+        <v>198843</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>263521</v>
+        <v>265503</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>90523</v>
+        <v>91032</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>77002</v>
+        <v>76954</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>97925</v>
+        <v>97502</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>132551</v>
+        <v>131285</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>147679</v>
+        <v>148075</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>153881</v>
+        <v>153217</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>164463</v>
+        <v>162878</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>203123</v>
+        <v>201660</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>228597</v>
+        <v>229099</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>220716</v>
+        <v>218800</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>252297</v>
+        <v>253737</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>318857</v>
+        <v>324156</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>21661</v>
+        <v>23122</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>34464</v>
+        <v>34124</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>34320</v>
+        <v>35368</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>37176</v>
+        <v>37283</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>35639</v>
+        <v>36221</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>84502</v>
+        <v>87632</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>50162</v>
+        <v>51688</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>62192</v>
+        <v>62857</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>63320</v>
+        <v>65435</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>128549</v>
+        <v>127610</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>92335</v>
+        <v>91049</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>104833</v>
+        <v>105358</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>41912</v>
+        <v>41658</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>59041</v>
+        <v>59945</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>57696</v>
+        <v>59886</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>56154</v>
+        <v>56466</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>61902</v>
+        <v>61964</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>116318</v>
+        <v>117157</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>78194</v>
+        <v>77818</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>82073</v>
+        <v>81487</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>94221</v>
+        <v>95725</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>168002</v>
+        <v>168938</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>128592</v>
+        <v>128157</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>131871</v>
+        <v>134057</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>40140</v>
+        <v>40472</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>54494</v>
+        <v>54337</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>44733</v>
+        <v>44599</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>103405</v>
+        <v>103061</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>67200</v>
+        <v>66375</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>65846</v>
+        <v>65701</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>68621</v>
+        <v>69034</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>129923</v>
+        <v>131604</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>116202</v>
+        <v>115025</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>127086</v>
+        <v>130660</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>123048</v>
+        <v>121190</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>240404</v>
+        <v>242755</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>65989</v>
+        <v>64574</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>81980</v>
+        <v>83927</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>71839</v>
+        <v>72087</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>132606</v>
+        <v>132338</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>97271</v>
+        <v>99140</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>96342</v>
+        <v>95860</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>101242</v>
+        <v>98839</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>156032</v>
+        <v>157775</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>156324</v>
+        <v>154099</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>168219</v>
+        <v>170252</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>162975</v>
+        <v>162032</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>281288</v>
+        <v>281674</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>70721</v>
+        <v>71464</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>81096</v>
+        <v>80551</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>127634</v>
+        <v>127859</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>166345</v>
+        <v>166159</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>111114</v>
+        <v>112027</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>159730</v>
+        <v>160509</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>190817</v>
+        <v>193489</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>246614</v>
+        <v>245169</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>191844</v>
+        <v>191885</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>257124</v>
+        <v>255322</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>333362</v>
+        <v>331006</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>430724</v>
+        <v>426655</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>103650</v>
+        <v>105578</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>120144</v>
+        <v>120101</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>171166</v>
+        <v>173691</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>220622</v>
+        <v>222718</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>151718</v>
+        <v>153545</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>210362</v>
+        <v>210987</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>239112</v>
+        <v>240141</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>295386</v>
+        <v>293484</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>245107</v>
+        <v>244227</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>318362</v>
+        <v>317263</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>399376</v>
+        <v>400784</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>500492</v>
+        <v>501502</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>117014</v>
+        <v>116084</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>164500</v>
+        <v>161059</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>103755</v>
+        <v>104202</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>124818</v>
+        <v>124728</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>178651</v>
+        <v>179413</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>232388</v>
+        <v>235107</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>187693</v>
+        <v>187311</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>218988</v>
+        <v>218203</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>309143</v>
+        <v>309318</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>410176</v>
+        <v>407777</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>302978</v>
+        <v>299270</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>352829</v>
+        <v>354698</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>158655</v>
+        <v>158447</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>213228</v>
+        <v>211261</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>144683</v>
+        <v>143847</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>166528</v>
+        <v>168857</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>229411</v>
+        <v>232051</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>288577</v>
+        <v>290666</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>242134</v>
+        <v>239736</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>262934</v>
+        <v>263698</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>372003</v>
+        <v>374748</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>488018</v>
+        <v>488884</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>370345</v>
+        <v>367300</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>417763</v>
+        <v>418196</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>552447</v>
+        <v>549507</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>594849</v>
+        <v>594927</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>579631</v>
+        <v>577050</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>878465</v>
+        <v>879353</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>933981</v>
+        <v>937705</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1057388</v>
+        <v>1057823</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>960271</v>
+        <v>958393</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1328015</v>
+        <v>1336728</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1510132</v>
+        <v>1511411</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1689360</v>
+        <v>1685715</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1565158</v>
+        <v>1573436</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>2236835</v>
+        <v>2238993</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>640703</v>
+        <v>638471</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>686622</v>
+        <v>694674</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>674571</v>
+        <v>669355</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>986754</v>
+        <v>988764</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1037491</v>
+        <v>1039754</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1173466</v>
+        <v>1166055</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1075085</v>
+        <v>1073564</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1427662</v>
+        <v>1440582</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1650065</v>
+        <v>1653031</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1840497</v>
+        <v>1834409</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1710933</v>
+        <v>1717580</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>2388321</v>
+        <v>2390384</v>
       </c>
     </row>
     <row r="40">
